--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191213.4848122316</v>
+        <v>185925.3693174605</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11289363.82889921</v>
+        <v>11287593.89072795</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>371.788360941013</v>
+        <v>344.526165958051</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226972</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.1368592263261</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>164.6176495403387</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>63.53026179397022</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>162.9720920431492</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>214.6088614204506</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720723025</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>159.4955074872169</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.30888115713332</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>370.9874661861546</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>262.1579485045328</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.19044195757714</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>168.3146059521772</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>219.5222820306726</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465762</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.02653676483764</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>67.70102941947403</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>47.5091339264769</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>8.501682495709833</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>67.97210870300486</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>4.560852477313456</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497646</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093891</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227893</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126124</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841672</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564646</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383888</v>
+        <v>24.17382596575018</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828892</v>
+        <v>52.06849973565031</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434679</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308072</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086858</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435641</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431724</v>
+        <v>70.57601873167863</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459965</v>
+        <v>55.72314698196104</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643938</v>
+        <v>41.29686219380076</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931849</v>
+        <v>41.22330424667987</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908576</v>
+        <v>42.97275566644714</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147789</v>
+        <v>53.79159358883928</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804993</v>
+        <v>41.14384575541132</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922186</v>
+        <v>18.98356133658325</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367778</v>
+        <v>9.882059701039168</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792051</v>
+        <v>88.00800320656649</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407386</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678084</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546744</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754245</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221371</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988134</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579.3529611338172</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="C2" t="n">
-        <v>579.3529611338172</v>
+        <v>1681.986836319858</v>
       </c>
       <c r="D2" t="n">
-        <v>579.3529611338172</v>
+        <v>1681.986836319858</v>
       </c>
       <c r="E2" t="n">
-        <v>203.809162203501</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>917.08616960938</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>503.9234140973831</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="L2" t="n">
-        <v>188.145432303583</v>
+        <v>534.8235384748674</v>
       </c>
       <c r="M2" t="n">
-        <v>726.4042173136754</v>
+        <v>1048.426217084557</v>
       </c>
       <c r="N2" t="n">
-        <v>1254.215500951138</v>
+        <v>1102.089684652129</v>
       </c>
       <c r="O2" t="n">
-        <v>1694.255101843466</v>
+        <v>1542.129285544457</v>
       </c>
       <c r="P2" t="n">
-        <v>2042.442593974988</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="W2" t="n">
-        <v>1765.791020991556</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="X2" t="n">
-        <v>1376.338415924613</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Y2" t="n">
-        <v>979.8477068452141</v>
+        <v>2075.162337816927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813225</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414147</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.449588162895</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737827</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475494</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475494</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653855</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875478</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>921.5731989359499</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545639</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262037</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714992</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614861</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813769</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492411</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863478</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996765</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467765</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222838</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>880.7707003262365</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="C4" t="n">
-        <v>710.5655823922257</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="D4" t="n">
-        <v>554.9324692947405</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="E4" t="n">
-        <v>554.9324692947405</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="F4" t="n">
-        <v>397.6065345077135</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="G4" t="n">
-        <v>229.352480607159</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865298</v>
+        <v>71.8815169302366</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865298</v>
+        <v>71.8815169302366</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>880.7707003262365</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>880.7707003262365</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>880.7707003262365</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>880.7707003262365</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>880.7707003262365</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W4" t="n">
-        <v>880.7707003262365</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="X4" t="n">
-        <v>880.7707003262365</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.7707003262365</v>
+        <v>393.6405220498928</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>930.4757375204658</v>
+        <v>999.0326551025582</v>
       </c>
       <c r="C5" t="n">
-        <v>930.4757375204658</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="D5" t="n">
-        <v>930.4757375204658</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370104</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073922</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207956</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845418</v>
+        <v>1450.27717678365</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102449</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102449</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023269</v>
+        <v>1813.668821661866</v>
       </c>
       <c r="U5" t="n">
-        <v>1881.037326457867</v>
+        <v>1557.916092096465</v>
       </c>
       <c r="V5" t="n">
-        <v>1716.419051666808</v>
+        <v>1215.809282799983</v>
       </c>
       <c r="W5" t="n">
-        <v>1716.419051666808</v>
+        <v>1215.809282799983</v>
       </c>
       <c r="X5" t="n">
-        <v>1326.966446599865</v>
+        <v>1215.809282799983</v>
       </c>
       <c r="Y5" t="n">
-        <v>930.4757375204658</v>
+        <v>999.0326551025582</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442696</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475494</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569813</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569813</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="M6" t="n">
-        <v>901.4935904670737</v>
+        <v>987.9600536479819</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430368</v>
+        <v>1501.562732257672</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021349</v>
+        <v>2015.165410867361</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="T6" t="n">
-        <v>1997.799157936655</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1787.736014615297</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1565.196012986364</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1335.078767119651</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475494</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475494</v>
+        <v>510.0211067816484</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475494</v>
+        <v>354.3879936841631</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475494</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633855</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>826.88572885977</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>560.9063836805942</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="W7" t="n">
-        <v>277.5759816117719</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475494</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475494</v>
+        <v>740.1341854804402</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.660243210722</v>
+        <v>924.8850248408685</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.484741713652</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D8" t="n">
-        <v>935.7499273842031</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1304.804169167248</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2104.154988922119</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.154988922119</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.154988922119</v>
+        <v>1710.82833898721</v>
       </c>
       <c r="X8" t="n">
-        <v>2104.154988922119</v>
+        <v>1321.375733920267</v>
       </c>
       <c r="Y8" t="n">
-        <v>2104.154988922119</v>
+        <v>924.8850248408685</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.4073954644657</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C10" t="n">
-        <v>180.4073954644657</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4073954644657</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>558.8796580964973</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>275.549256027675</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>275.549256027675</v>
+        <v>937.0300931484951</v>
       </c>
       <c r="Y10" t="n">
-        <v>275.549256027675</v>
+        <v>713.9180319651384</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1635.894626669077</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1314.515400318201</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1000.870546681063</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550884</v>
+        <v>1000.870546681063</v>
       </c>
       <c r="F11" t="n">
-        <v>470.02644983126</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>314.4059029914311</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5060,31 +5060,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2751.985177299521</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W11" t="n">
-        <v>2751.985177299521</v>
+        <v>2278.245390523031</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>1960.589060602282</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>1635.894626669077</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328.0470843355359</v>
+        <v>495.3882169375166</v>
       </c>
       <c r="C13" t="n">
-        <v>229.638241547719</v>
+        <v>495.3882169375166</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8014035964276</v>
+        <v>411.5513789862253</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014035964276</v>
+        <v>327.7888419916216</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964276</v>
+        <v>242.2591823507884</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964276</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.025365204554</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T13" t="n">
-        <v>1223.102588518982</v>
+        <v>1428.347763613018</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.460071907077</v>
+        <v>1214.705247001113</v>
       </c>
       <c r="V13" t="n">
-        <v>815.2770018740948</v>
+        <v>1020.522176968131</v>
       </c>
       <c r="W13" t="n">
-        <v>603.7428749514663</v>
+        <v>808.9880500455026</v>
       </c>
       <c r="X13" t="n">
-        <v>441.4588278806433</v>
+        <v>646.7040029746795</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.4588278806433</v>
+        <v>495.3882169375166</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119022</v>
+        <v>1405.326329274748</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>1083.947102923872</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>770.3022492867335</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937469</v>
+        <v>770.3022492867335</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5282,7 +5282,7 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5306,7 +5306,7 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998632</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
         <v>2675.578323579424</v>
@@ -5318,10 +5318,10 @@
         <v>2376.375563693905</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.788005617431</v>
+        <v>2058.719233773156</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.093571684226</v>
+        <v>1734.024799839951</v>
       </c>
     </row>
     <row r="15">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.244352881957</v>
+        <v>480.3646367048053</v>
       </c>
       <c r="C16" t="n">
-        <v>464.83551009414</v>
+        <v>411.7059410452044</v>
       </c>
       <c r="D16" t="n">
-        <v>380.9986721428487</v>
+        <v>327.8691030939131</v>
       </c>
       <c r="E16" t="n">
-        <v>297.2361351482451</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="F16" t="n">
-        <v>211.706475507412</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118221</v>
@@ -5449,7 +5449,7 @@
         <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5461,25 +5461,25 @@
         <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>1201.790056457679</v>
+        <v>988.1475398457732</v>
       </c>
       <c r="V16" t="n">
-        <v>1201.790056457679</v>
+        <v>793.9644698127912</v>
       </c>
       <c r="W16" t="n">
-        <v>990.2559295350502</v>
+        <v>793.9644698127912</v>
       </c>
       <c r="X16" t="n">
-        <v>827.9718824642272</v>
+        <v>631.6804227419682</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.6560964270644</v>
+        <v>480.3646367048053</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803434</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5601,7 +5601,7 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5665,7 +5665,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,22 +5677,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5738,31 +5738,31 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>112.6101842924878</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5902,34 +5902,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960407</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343048</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5993,13 +5993,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6072,16 +6072,16 @@
         <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6206,61 +6206,61 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471387995</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>606.9665031662613</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614363</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420326</v>
@@ -6297,28 +6297,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>357.2653989400741</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>357.2653989400741</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>985.0370485667553</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6403,31 +6403,31 @@
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286451</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388005</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958356</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.11893248314</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236564</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>330.2146855069349</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>813.7807714052482</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>813.7807714052482</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
         <v>1469.558742615807</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993093</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108119</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803399</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835549</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311921</v>
+        <v>571.1872645386352</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508749</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146211</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038539</v>
+        <v>2690.011461406517</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170061</v>
+        <v>3038.198953538039</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3303.341514273837</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.75678011726</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939835</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380777</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696901</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281945</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131757</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="K33" t="n">
-        <v>182.662530460489</v>
+        <v>387.2942816645717</v>
       </c>
       <c r="L33" t="n">
-        <v>666.2286163588022</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>1294.000265985484</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="N33" t="n">
-        <v>1949.778237196042</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1949.778237196042</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965121</v>
+        <v>365.6713676929742</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991866</v>
+        <v>309.3853606404883</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245279</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652553</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597531</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407236</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431902</v>
+        <v>86.73045008374243</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>225.4160927171037</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812063</v>
+        <v>389.5437325909035</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465407</v>
+        <v>575.8353109291675</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777498</v>
+        <v>759.0249449603767</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1033.381832577067</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1264.910118928628</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873662</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387764</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451838</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501597</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250228</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395506</v>
+        <v>835.7257283273718</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000929</v>
+        <v>666.3144371400743</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124407</v>
+        <v>546.1532258045823</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584487</v>
+        <v>436.9602755027506</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.571845448837</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1942.349816659396</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1942.349816659396</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K37" t="n">
-        <v>149.53381142224</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960398</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343038</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655131</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,16 +7196,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1286.571845448837</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1942.349816659396</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879418</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296498</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7430,13 +7430,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7497,16 +7497,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222407</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960405</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343045</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7731,16 +7731,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7816,10 +7816,10 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
         <v>1094.779966106229</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519591</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>203.3240141333112</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>278.1758456535024</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>530.9914402615956</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837486</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>537.1052683063459</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431208</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,10 +8222,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>317.8907133738713</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>565.0998139362621</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,16 +8301,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837486</v>
+        <v>611.1777065035437</v>
       </c>
       <c r="N6" t="n">
-        <v>440.0667875645653</v>
+        <v>604.1626973083985</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431208</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>147.6863213340282</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>412.8955348410459</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>674.5394322581657</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475136</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8775,16 +8775,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9480,13 +9480,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,19 +9720,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9951,25 +9951,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>262.1075997502995</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,10 +10188,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>234.7836467875326</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,7 +10200,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215578</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215584</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>292.8810966026122</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>292.8810966026122</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>292.8810966026122</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,7 +11379,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>99.29282285660763</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>76.68845025599097</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S13" t="n">
-        <v>72.68307381970655</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>94.58251949924231</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>294.1380477641131</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>305.978084125832</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>29.4526456569339</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>90.9323484895035</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>988369.648589575</v>
+        <v>987467.3271689346</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>988369.648589575</v>
+        <v>987467.3271689346</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>883315.7031257928</v>
+        <v>883315.7031257929</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>306564.7027587069</v>
+      </c>
+      <c r="C2" t="n">
+        <v>306564.7027587066</v>
+      </c>
+      <c r="D2" t="n">
         <v>306564.7027587068</v>
-      </c>
-      <c r="C2" t="n">
-        <v>306564.7027587067</v>
-      </c>
-      <c r="D2" t="n">
-        <v>306564.7027587066</v>
       </c>
       <c r="E2" t="n">
         <v>270910.3398214812</v>
@@ -26329,28 +26329,28 @@
         <v>306564.7027587063</v>
       </c>
       <c r="H2" t="n">
-        <v>306564.7027587064</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="I2" t="n">
         <v>306564.7027587064</v>
       </c>
       <c r="J2" t="n">
+        <v>306564.7027587066</v>
+      </c>
+      <c r="K2" t="n">
         <v>306564.7027587065</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>306564.7027587066</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>306564.7027587064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>306564.7027587063</v>
       </c>
       <c r="N2" t="n">
         <v>306564.7027587063</v>
       </c>
       <c r="O2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587062</v>
       </c>
       <c r="P2" t="n">
         <v>306564.7027587063</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340555</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401308</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728559</v>
+        <v>62456.24177539652</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962308</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746773</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746773</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002077</v>
       </c>
       <c r="F4" t="n">
         <v>112797.3745002078</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551967</v>
       </c>
-      <c r="H5" t="n">
-        <v>58169.76931551966</v>
-      </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315428</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142139.7545922576</v>
+        <v>-138089.0825848432</v>
       </c>
       <c r="C6" t="n">
-        <v>40065.19369959806</v>
+        <v>35769.57444921209</v>
       </c>
       <c r="D6" t="n">
-        <v>33473.13235987545</v>
+        <v>25736.84313648459</v>
       </c>
       <c r="E6" t="n">
-        <v>-7195.615852611692</v>
+        <v>-7405.347399301138</v>
       </c>
       <c r="F6" t="n">
-        <v>104926.9456214329</v>
+        <v>104717.2140747434</v>
       </c>
       <c r="G6" t="n">
-        <v>40413.31691471469</v>
+        <v>40413.31691471473</v>
       </c>
       <c r="H6" t="n">
-        <v>87838.64245139679</v>
+        <v>87838.64245139682</v>
       </c>
       <c r="I6" t="n">
-        <v>87838.64245139674</v>
+        <v>87838.64245139676</v>
       </c>
       <c r="J6" t="n">
-        <v>-125203.2751458886</v>
+        <v>-118686.9899913156</v>
       </c>
       <c r="K6" t="n">
-        <v>81598.874048614</v>
+        <v>81598.87404861394</v>
       </c>
       <c r="L6" t="n">
-        <v>26416.28511399256</v>
+        <v>22367.44790352081</v>
       </c>
       <c r="M6" t="n">
-        <v>45637.81299177359</v>
+        <v>44586.11798058567</v>
       </c>
       <c r="N6" t="n">
-        <v>87838.64245139662</v>
+        <v>87838.64245139671</v>
       </c>
       <c r="O6" t="n">
-        <v>60070.94840862544</v>
+        <v>60070.94840862531</v>
       </c>
       <c r="P6" t="n">
         <v>87838.64245139665</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="H4" t="n">
-        <v>776.4890963014441</v>
-      </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095199</v>
+        <v>844.439195029315</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660699</v>
+        <v>78.07030221924565</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287475</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506321</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321491</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971656</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506321</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321491</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>26.76932869360792</v>
+        <v>54.03152367656986</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434298</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863175</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.885417214331994</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>59.13171767977858</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,10 +27594,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>175.7136491603676</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>177.9169405681543</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758504</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>27.91849938627152</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>124.0470573472549</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>165.708020294746</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10.59925130934431</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>105.1310961768626</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.16549654681113</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>220.1269184951917</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634528808</v>
+        <v>28.01250026485263</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="R25" t="n">
         <v>128.2979821082779</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>130.3599693155844</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431643</v>
+        <v>30.27223765901121</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431727</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,31 +29533,31 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="N29" t="n">
-        <v>86.65052755599527</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738833052</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893914</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031982</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.7144686125389</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634527884</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30405,22 +30405,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.636002634528126</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
@@ -30639,19 +30639,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668765</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30888,13 +30888,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
         <v>5.636002634529035</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>54.20552279552712</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6771472351102</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>440.9310934046774</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>451.7331554521793</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,10 +34942,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>168.165661776144</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>415.981322598478</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,16 +35021,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="N6" t="n">
-        <v>354.6946747103987</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542319</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>60.60295651471353</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>263.1704832433186</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35495,16 +35495,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565488</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36440,19 +36440,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>210.9596397950879</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851002</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809041</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.3632145670549</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>172.5106644169661</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446975</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851013</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009064</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>145.1867114541993</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.175988039422</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184959</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>267.8207684199983</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537635</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673918</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>205.7977317832975</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791194</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>159.4555122371298</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097885</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>233.8669559106678</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269138</v>
+        <v>116.2366837828621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>205.7977317832975</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133786</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>205.7977317832975</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,13 +37710,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094869</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634528578</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>169.9842521716079</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
